--- a/data/expectations.xlsx
+++ b/data/expectations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/Documents/文件 - 王台中的MacBook Pro -  OffLine/MAC-92-WebSite/A7Kanban02/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2EBF0F-E0F8-2D4E-B33C-991A6F689941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330E0FF5-4574-2142-834C-150479F51D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29900" yWindow="-12920" windowWidth="27520" windowHeight="16880" xr2:uid="{4F6100CF-6D10-BE40-8545-FDF8DD8135D8}"/>
+    <workbookView xWindow="15460" yWindow="-26920" windowWidth="32860" windowHeight="22440" xr2:uid="{4F6100CF-6D10-BE40-8545-FDF8DD8135D8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -173,11 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;p&gt;A7建案應該都有機車停車位不足的問題, 未來街道上一定會車滿為患。 請參考 社區網站 - &lt;a href="https://tcwang.github.io/A7Xinlinkou/A7XLK-13-Transportation.html#Menu-B13"&gt;停車規劃&lt;/a&gt;,
-希望有關單位或議員能協助 建立A7重劃區全面性機車停車位的規劃。徹底解決未來社區內部機車停車位不足問題。&lt;/p&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>強化A7聯外公車網的規劃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,6 +442,51 @@
   </si>
   <si>
     <t>加速落實A7重劃區交通網規劃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt;A7建案應該都有機車停車位不足的問題, 未來街道上一定會車滿為患。 請參考 社區網站 - &lt;a href="https://tcwang.github.io/A7Xinlinkou/A7XLK-13-Transportation.html#Menu-B13"&gt;停車規劃&lt;/a&gt;,
+希望有關單位或議員能協助 建立A7重劃區全面性機車停車位的規劃。徹底解決未來社區內部機車停車位不足問題。&lt;/p&gt;
+&lt;p&gt;&lt;a href="https://www.facebook.com/groups/1951117865015671/permalink/6478257715634974/"&gt;A7重劃區大小事 2023/10/08&lt;/a&gt;: 周傳勳 對機車停車位的討論:&lt;/p&gt;
+&lt;p&gt;觀察了一下 這次民眾關心的是兩個路段的機車停車問題：&lt;/p&gt;
+&lt;ol class="mb-1"&gt;
+&lt;li&gt;A7 捷運站周邊交叉口&lt;/li&gt;
+&lt;li&gt;文青路與青山路交叉口&lt;/li&gt;
+&lt;/ol  class="mb-1"&gt;
+&lt;p&gt;估計缺乏車位數量：100個機車位 (15*8-20)
+其實這附近作為住商混合區域兼通勤區域長期以來機車停車位其實都是不夠的，這中間還有一個問題是 2019以前A7都屬於較為偏僻的地方，是這一波房市大爆發之後，才造成店面林立車位不足的問題，另外也有民眾重視人行道騎行問題。&lt;/p&gt;
+偽議題：&lt;br&gt;
+&lt;ol  class="mb-1"&gt;
+&lt;li&gt;在商業區步行超過300公尺以外區域的機車位。
+因為： 太遠了吧 吃個飯步行距離都快趕上學校操場運動了&lt;/li&gt;
+&lt;li&gt;A7旁邊即將興建附帶停車場的運動公園，已經動土典禮了。
+因為： 蓋好還要2~3年，除非BOT給這邊的建商，不然公家蓋房子就是這速度。&lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;另外公園搭配的停車場 通常不會挖很深 預備給機車的空間通常也都會不足。&lt;/p&gt;
+&lt;p  class="mb-1"&gt;安全性議題：&lt;br&gt;
+青山路上來的出口 車禍風險頗高所以三個方向周邊100公尺所有路口不宜興建汽機車停車位&lt;/p&gt;
+長遠議題：&lt;br&gt;
+&lt;ol&gt;
+&lt;li&gt; 青山路上來的路口 已經規劃要做道路拓寬 還是老規矩 100公尺不會有機車位
+[本來我還在想要把露易莎之後 天橋為界 拉一排路邊機車停車位加一條車道 就是現在議員規劃的拓寬C區域]
+[我的意思就是打掉兩線車道 增加一條車道 一條機車位+公車位 。 未來發現還是塞車再把機車位閹割掉。] &lt;/li&gt;
+&lt;li&gt;變一變二道路完工後，預期文青一路連線完成後會形成商業熱區&lt;/li&gt;
+&lt;/ol&gt;
+我的建議(整體評估結果) &lt;br&gt;
+&lt;ol&gt;
+&lt;li&gt;目前估算車位數量仍然足夠，需要停車的民眾可以利用文青一路口的公有停車場有72個停機車格&lt;/li&gt;
+&lt;li&gt; A7 站體出來的那一排收費停車位畫更長一些更多一些增加收費量體降低收費至每日停車費20元
+(如果現在車位數量已經充足 就直接降價) 增加使用意願。&lt;/li&gt;
+&lt;li&gt;跟家樂福溝通一下，現在停車收費太貴了，建議調整至 "每日機車停車費20元，超過12小時收費300元(不給過夜)。" &lt;/li&gt;
+&lt;li&gt;民眾也可自行檢視一下居家周邊停車位是否有報廢車輛，判定的方式： 拉油門、壓剎車 如果這兩項有一項無法使用，
+表示該車為疑似報廢車輛，可以通知1999請清潔隊協助開單貼條子 預備報廢 (或是 使用清潔隊網站通報 (不管有沒有車牌都可以通報))。
+收取停車費很多時候是對報廢車輛的管理，屬於沒有辦法的辦法。&lt;/li&gt;
+&lt;li&gt;廣19興建時，廣18先做成平面免費機車停車位 供通勤民眾使用。
+(收費的話要合理 汽車1H 20 一日60 機車 20 元一日) &lt;/li&gt;
+&lt;/ol&gt;
+&lt;p&gt;
+也希望附近居民要體諒一下房價多8萬的代價就是生活機能更方便，
+但是周邊設施需要與外地人共同享用。民意代表思考問題時，不能只考量單一區域的需要。&lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -838,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCFC3BA-47C5-3D47-8CB0-A909797830A1}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -868,18 +908,18 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>334</v>
@@ -890,33 +930,33 @@
     </row>
     <row r="3" spans="1:6" ht="240">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="380">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1">
         <v>133</v>
@@ -927,7 +967,7 @@
     </row>
     <row r="5" spans="1:6" ht="16">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -944,13 +984,13 @@
     </row>
     <row r="6" spans="1:6" ht="320">
       <c r="A6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1">
         <v>225</v>
@@ -961,13 +1001,13 @@
     </row>
     <row r="7" spans="1:6" ht="144">
       <c r="A7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" s="1">
         <v>157</v>
@@ -978,13 +1018,13 @@
     </row>
     <row r="8" spans="1:6" ht="96">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1">
         <v>87</v>
@@ -993,82 +1033,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="48">
+    <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1">
         <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="350">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="160">
       <c r="A11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="64">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="160">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1080,12 +1120,12 @@
         <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="144">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1097,77 +1137,77 @@
         <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="256">
       <c r="A18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16">
       <c r="A19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="160">
       <c r="A20" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/expectations.xlsx
+++ b/data/expectations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330E0FF5-4574-2142-834C-150479F51D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3DE1A-1B42-2946-B5D6-B44B8E8429A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15460" yWindow="-26920" windowWidth="32860" windowHeight="22440" xr2:uid="{4F6100CF-6D10-BE40-8545-FDF8DD8135D8}"/>
+    <workbookView xWindow="8600" yWindow="-24600" windowWidth="32860" windowHeight="22440" xr2:uid="{4F6100CF-6D10-BE40-8545-FDF8DD8135D8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -194,15 +194,6 @@
   </si>
   <si>
     <t>完整規劃區域人行道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;p&gt;Facebook 2023/07/13 &lt;a href="https://www.facebook.com/profile.php?id=100063574997048"&gt;陳雅倫稱:&lt;/a&gt; 大崗國小通學步道計劃通過審核囉！
-&lt;/p&gt;&lt;p&gt;建立行人友善步道。排除行人道障礙, 嚴格取締違規機車的任意停放。 並注意行人道及公園的夜間照明。 及早打通廣18及19間的人行陸橋。 加強區域道路安全設計。
-&lt;/p&gt;
-&lt;p&gt;交通違規的整治 -
-交通違規檢舉法規修訂案縮減了違規檢舉範圍，但對於影響行車安全的違規仍是可以使用手機舉報。在許多違規嚴重區域，警方會提供QRcode
-供民眾舉報。 通常都有很好的效果。請參考 社區網站 - &lt;a href="https://tcwang.github.io/A7Xinlinkou/A7XLK-13-Transportation.html#Menu-B9"&gt;行人規劃&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -487,6 +478,23 @@
 &lt;p&gt;
 也希望附近居民要體諒一下房價多8萬的代價就是生活機能更方便，
 但是周邊設施需要與外地人共同享用。民意代表思考問題時，不能只考量單一區域的需要。&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;p&gt; 樂學一路 開通案&lt;br&gt;
+&lt;a href="https://today.line.me/tw/v2/article/Ggl0nW8"&gt;桃園電子報 2023/11/07 &lt;/a&gt;陳雅倫要求張善政解決公車脫班問題 加速龜山變一道路工程 &lt;br&gt;
+陳雅倫強調，樂善一路非常重要，是未來A7合宜住宅住戶通往文青國中小的重要道路，不宜刪掉。並要求加速變一道路以及儘快取得磚窯公園用地，並要求張善政提出開闢磚窯公園的期程。 &lt;br&gt;
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/SER-043.jpeg" alt="市政總質詢" class="w-full md:w-1/2"  /&gt;&lt;br&gt;
+變一案 修訂為地下化後 保留文學路的銜接，但省略樂善一路的連接。本案較原高架設計經費較低！同時保留磚窯公園的完整古蹟風貌！ 但議員質詢質疑樂善一路是合宜住宅通往文青國中小的要道是否造成學童上下學的不便捷？&lt;br&gt;是否能考慮將樂善一路徹底打通成為一個 橫跨 十八份坑溪的綠色通道？讓文青國中小的學生每天上學途中都能沐浴在酚多精的森林世界！ 如下示意圖 不知是否有居民覆議？
+&lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/expectation/EXP-014.jpeg" alt="樂善一路" class="w-full md:w-1/2"  /&gt;&lt;br&gt;
+&lt;br&gt;
+&lt;/p&gt;
+&lt;p&gt;Facebook 2023/07/13 &lt;a href="https://www.facebook.com/profile.php?id=100063574997048"&gt;陳雅倫稱:&lt;/a&gt; 大崗國小通學步道計劃通過審核囉！
+&lt;/p&gt;&lt;p&gt;建立行人友善步道。排除行人道障礙, 嚴格取締違規機車的任意停放。 並注意行人道及公園的夜間照明。 及早打通廣18及19間的人行陸橋。 加強區域道路安全設計。
+&lt;/p&gt;
+&lt;p&gt;交通違規的整治 -
+交通違規檢舉法規修訂案縮減了違規檢舉範圍，但對於影響行車安全的違規仍是可以使用手機舉報。在許多違規嚴重區域，警方會提供QRcode
+供民眾舉報。 通常都有很好的效果。請參考 社區網站 - &lt;a href="https://tcwang.github.io/A7Xinlinkou/A7XLK-13-Transportation.html#Menu-B9"&gt;行人規劃&lt;/a&gt;&lt;/p&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCFC3BA-47C5-3D47-8CB0-A909797830A1}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -908,18 +916,18 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2" s="1">
         <v>334</v>
@@ -930,33 +938,33 @@
     </row>
     <row r="3" spans="1:6" ht="240">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="380">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1">
         <v>133</v>
@@ -967,7 +975,7 @@
     </row>
     <row r="5" spans="1:6" ht="16">
       <c r="A5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -984,13 +992,13 @@
     </row>
     <row r="6" spans="1:6" ht="320">
       <c r="A6" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
         <v>225</v>
@@ -1001,13 +1009,13 @@
     </row>
     <row r="7" spans="1:6" ht="144">
       <c r="A7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1">
         <v>157</v>
@@ -1018,13 +1026,13 @@
     </row>
     <row r="8" spans="1:6" ht="96">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1">
         <v>87</v>
@@ -1035,24 +1043,24 @@
     </row>
     <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1">
         <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="350">
       <c r="A10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1064,9 +1072,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="160">
+    <row r="11" spans="1:6" ht="395">
       <c r="A11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1075,40 +1083,40 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="64">
       <c r="A13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="160">
       <c r="A14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1120,12 +1128,12 @@
         <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="144">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1137,77 +1145,77 @@
         <v>92</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="256">
       <c r="A18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16">
       <c r="A19" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="160">
       <c r="A20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
